--- a/compare3.xlsx
+++ b/compare3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="0" windowWidth="9680" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="15040" yWindow="0" windowWidth="10560" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>limma</t>
   </si>
@@ -108,10 +108,28 @@
     <t>VR_VS</t>
   </si>
   <si>
-    <t>larger1</t>
-  </si>
-  <si>
-    <t>larger2</t>
+    <t>limma1</t>
+  </si>
+  <si>
+    <t>limma2</t>
+  </si>
+  <si>
+    <t>deseq</t>
+  </si>
+  <si>
+    <t>deseq1</t>
+  </si>
+  <si>
+    <t>deseq2</t>
+  </si>
+  <si>
+    <t>edger</t>
+  </si>
+  <si>
+    <t>edger1</t>
+  </si>
+  <si>
+    <t>edger2</t>
   </si>
 </sst>
 </file>
@@ -143,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,8 +189,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -500,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -511,9 +536,13 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -523,12 +552,30 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
@@ -537,12 +584,30 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>600</v>
       </c>
       <c r="C3">
@@ -551,12 +616,30 @@
       <c r="D3">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>787</v>
+      </c>
+      <c r="F3">
+        <v>483</v>
+      </c>
+      <c r="G3">
+        <v>304</v>
+      </c>
+      <c r="H3" s="1">
+        <v>702</v>
+      </c>
+      <c r="I3">
+        <v>407</v>
+      </c>
+      <c r="J3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4">
@@ -565,12 +648,30 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5">
@@ -579,12 +680,30 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6">
@@ -593,12 +712,30 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>189</v>
       </c>
       <c r="C7">
@@ -607,12 +744,30 @@
       <c r="D7">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>628</v>
+      </c>
+      <c r="F7">
+        <v>353</v>
+      </c>
+      <c r="G7">
+        <v>275</v>
+      </c>
+      <c r="H7" s="1">
+        <v>478</v>
+      </c>
+      <c r="I7">
+        <v>263</v>
+      </c>
+      <c r="J7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8">
@@ -621,12 +776,30 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9">
@@ -635,12 +808,30 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>132</v>
+      </c>
+      <c r="F9">
+        <v>117</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>82</v>
+      </c>
+      <c r="I9">
+        <v>77</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1743</v>
       </c>
       <c r="C10">
@@ -649,12 +840,30 @@
       <c r="D10">
         <v>655</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>2811</v>
+      </c>
+      <c r="F10">
+        <v>1620</v>
+      </c>
+      <c r="G10">
+        <v>1191</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2464</v>
+      </c>
+      <c r="I10">
+        <v>405</v>
+      </c>
+      <c r="J10">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11">
@@ -663,12 +872,30 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>572</v>
+      </c>
+      <c r="F11">
+        <v>440</v>
+      </c>
+      <c r="G11">
+        <v>132</v>
+      </c>
+      <c r="H11" s="1">
+        <v>396</v>
+      </c>
+      <c r="I11">
+        <v>259</v>
+      </c>
+      <c r="J11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12">
@@ -677,12 +904,30 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>87</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>66</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>26</v>
       </c>
       <c r="C13">
@@ -691,12 +936,30 @@
       <c r="D13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>747</v>
+      </c>
+      <c r="F13">
+        <v>451</v>
+      </c>
+      <c r="G13">
+        <v>296</v>
+      </c>
+      <c r="H13" s="1">
+        <v>434</v>
+      </c>
+      <c r="I13">
+        <v>242</v>
+      </c>
+      <c r="J13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1345</v>
       </c>
       <c r="C14">
@@ -705,12 +968,30 @@
       <c r="D14">
         <v>447</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>2475</v>
+      </c>
+      <c r="F14">
+        <v>1485</v>
+      </c>
+      <c r="G14">
+        <v>990</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2143</v>
+      </c>
+      <c r="I14">
+        <v>922</v>
+      </c>
+      <c r="J14">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>2551</v>
       </c>
       <c r="C15">
@@ -719,12 +1000,30 @@
       <c r="D15">
         <v>1237</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>2761</v>
+      </c>
+      <c r="F15">
+        <v>1300</v>
+      </c>
+      <c r="G15">
+        <v>1461</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2444</v>
+      </c>
+      <c r="I15">
+        <v>1068</v>
+      </c>
+      <c r="J15">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>562</v>
       </c>
       <c r="C16">
@@ -733,12 +1032,30 @@
       <c r="D16">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>717</v>
+      </c>
+      <c r="F16">
+        <v>286</v>
+      </c>
+      <c r="G16">
+        <v>431</v>
+      </c>
+      <c r="H16" s="1">
+        <v>575</v>
+      </c>
+      <c r="I16">
+        <v>221</v>
+      </c>
+      <c r="J16">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>9</v>
       </c>
       <c r="C17">
@@ -747,12 +1064,30 @@
       <c r="D17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>217</v>
+      </c>
+      <c r="F17">
+        <v>41</v>
+      </c>
+      <c r="G17">
+        <v>176</v>
+      </c>
+      <c r="H17" s="1">
+        <v>113</v>
+      </c>
+      <c r="I17">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18">
@@ -761,12 +1096,30 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>155</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>147</v>
+      </c>
+      <c r="H18" s="1">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1824</v>
       </c>
       <c r="C19">
@@ -775,12 +1128,30 @@
       <c r="D19">
         <v>872</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>2166</v>
+      </c>
+      <c r="F19">
+        <v>1019</v>
+      </c>
+      <c r="G19">
+        <v>1147</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1801</v>
+      </c>
+      <c r="I19">
+        <v>913</v>
+      </c>
+      <c r="J19">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20">
@@ -789,12 +1160,30 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>187</v>
       </c>
       <c r="C21">
@@ -803,12 +1192,30 @@
       <c r="D21">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>1167</v>
+      </c>
+      <c r="F21">
+        <v>491</v>
+      </c>
+      <c r="G21">
+        <v>676</v>
+      </c>
+      <c r="H21" s="1">
+        <v>927</v>
+      </c>
+      <c r="I21">
+        <v>867</v>
+      </c>
+      <c r="J21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1204</v>
       </c>
       <c r="C22">
@@ -817,12 +1224,30 @@
       <c r="D22">
         <v>670</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>1505</v>
+      </c>
+      <c r="F22">
+        <v>715</v>
+      </c>
+      <c r="G22">
+        <v>790</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1341</v>
+      </c>
+      <c r="I22">
+        <v>966</v>
+      </c>
+      <c r="J22">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23">
@@ -831,12 +1256,30 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24">
@@ -845,12 +1288,30 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>51</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>52</v>
       </c>
       <c r="C25">
@@ -859,12 +1320,30 @@
       <c r="D25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1">
+        <v>225</v>
+      </c>
+      <c r="F25">
+        <v>137</v>
+      </c>
+      <c r="G25">
+        <v>88</v>
+      </c>
+      <c r="H25" s="1">
+        <v>151</v>
+      </c>
+      <c r="I25">
+        <v>91</v>
+      </c>
+      <c r="J25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26">
@@ -873,12 +1352,30 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27">
@@ -887,12 +1384,30 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28">
@@ -901,12 +1416,30 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1">
+        <v>207</v>
+      </c>
+      <c r="F28">
+        <v>182</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1">
+        <v>23</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>50</v>
       </c>
       <c r="C29">
@@ -914,6 +1447,24 @@
       </c>
       <c r="D29">
         <v>25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>284</v>
+      </c>
+      <c r="F29">
+        <v>142</v>
+      </c>
+      <c r="G29">
+        <v>142</v>
+      </c>
+      <c r="H29" s="1">
+        <v>206</v>
+      </c>
+      <c r="I29">
+        <v>112</v>
+      </c>
+      <c r="J29">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
